--- a/TestData/Vorlagen/Kurswahl.xlsx
+++ b/TestData/Vorlagen/Kurswahl.xlsx
@@ -304,7 +304,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,8 +1794,8 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E8:Z49" type="textLength">
-      <formula1>0</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E8:Z49" type="list">
+      <formula1>"X"</formula1>
       <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
